--- a/data/trans_orig/P35_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>44128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32078</v>
+        <v>31655</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59679</v>
+        <v>61004</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08848008847929559</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06431770465270077</v>
+        <v>0.06347023384686791</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1196599224002167</v>
+        <v>0.122317132892409</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -762,19 +762,19 @@
         <v>67307</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54201</v>
+        <v>53955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82728</v>
+        <v>82390</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1080427056773595</v>
+        <v>0.1080427056773594</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08700474511494238</v>
+        <v>0.08661011208605435</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1327965442680269</v>
+        <v>0.132254390463623</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -783,19 +783,19 @@
         <v>111436</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>92765</v>
+        <v>93641</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>130417</v>
+        <v>134101</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09934467157924173</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08270004795219155</v>
+        <v>0.08348110432453495</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1162666467861607</v>
+        <v>0.119551222435225</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>25875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17141</v>
+        <v>16478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38170</v>
+        <v>37988</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05188053767513586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03436841388676985</v>
+        <v>0.03303927674249391</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07653293995734499</v>
+        <v>0.07616752306153493</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -833,19 +833,19 @@
         <v>22424</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15254</v>
+        <v>15466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31727</v>
+        <v>32085</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03599588158590527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02448568978727051</v>
+        <v>0.02482635151981861</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05092808297184698</v>
+        <v>0.05150333112650789</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -854,19 +854,19 @@
         <v>48299</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36500</v>
+        <v>36583</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64206</v>
+        <v>62128</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04305860120578697</v>
+        <v>0.04305860120578698</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03253950016367396</v>
+        <v>0.03261331308612585</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0572393882258218</v>
+        <v>0.05538679335273109</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>131176</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>112436</v>
+        <v>110936</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>152102</v>
+        <v>152676</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2630149921175175</v>
+        <v>0.2630149921175174</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2254397914956738</v>
+        <v>0.2224320411826324</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3049729902360744</v>
+        <v>0.3061232006639993</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>314</v>
@@ -904,19 +904,19 @@
         <v>204958</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>186001</v>
+        <v>184580</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>224281</v>
+        <v>225789</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3290029003859151</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2985722641913487</v>
+        <v>0.296291322558778</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3600205407480871</v>
+        <v>0.3624401338664895</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>448</v>
@@ -925,19 +925,19 @@
         <v>336134</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>307631</v>
+        <v>308042</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>368105</v>
+        <v>368445</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2996630083678474</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2742522931988161</v>
+        <v>0.2746186633307137</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3281650471134961</v>
+        <v>0.3284680117543512</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>297560</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>271909</v>
+        <v>273546</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>319268</v>
+        <v>320096</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.596624381728051</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5451938564261771</v>
+        <v>0.5484750109441886</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6401504422312335</v>
+        <v>0.6418096594558398</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>430</v>
@@ -975,19 +975,19 @@
         <v>328278</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>306094</v>
+        <v>306520</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>351930</v>
+        <v>353971</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5269585123508201</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4913473056207737</v>
+        <v>0.4920319521548657</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5649243596539792</v>
+        <v>0.5682001633378863</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>686</v>
@@ -996,19 +996,19 @@
         <v>625838</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>590909</v>
+        <v>590431</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>658255</v>
+        <v>657659</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5579337188471237</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5267947697673057</v>
+        <v>0.5263684733180282</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5868332204907281</v>
+        <v>0.5863017566335119</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>158054</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>130310</v>
+        <v>132086</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>185445</v>
+        <v>186636</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.164615784256377</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1357198230720554</v>
+        <v>0.1375695192794302</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1931441892175235</v>
+        <v>0.1943844323253602</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>183</v>
@@ -1121,19 +1121,19 @@
         <v>143699</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>124444</v>
+        <v>124623</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>165722</v>
+        <v>168607</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.128862973775931</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1115965560903275</v>
+        <v>0.1117570344304132</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1486127346856669</v>
+        <v>0.1512001685895932</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>320</v>
@@ -1142,19 +1142,19 @@
         <v>301752</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>266354</v>
+        <v>270056</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>337146</v>
+        <v>334960</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1454042874304938</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1283470261924051</v>
+        <v>0.1301307329901472</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1624592414445976</v>
+        <v>0.1614061420018358</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>34594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24865</v>
+        <v>24369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48289</v>
+        <v>47453</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03602976194393755</v>
+        <v>0.03602976194393754</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02589729201932703</v>
+        <v>0.02538060088886619</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05029385681167764</v>
+        <v>0.04942352258880654</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -1192,19 +1192,19 @@
         <v>52114</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42023</v>
+        <v>40805</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65703</v>
+        <v>65225</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04673396725897871</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03768421551351157</v>
+        <v>0.03659217331092847</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05891974174103908</v>
+        <v>0.05849073817010886</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -1213,19 +1213,19 @@
         <v>86708</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69462</v>
+        <v>73300</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103661</v>
+        <v>105438</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0417815840712074</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03347159957611652</v>
+        <v>0.03532057380081151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0499509818662866</v>
+        <v>0.05080718439976502</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>242569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>214419</v>
+        <v>215747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>272655</v>
+        <v>271057</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2526396747597732</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2233210205830898</v>
+        <v>0.2247045105542892</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2839746399314424</v>
+        <v>0.2823108416939603</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>520</v>
@@ -1263,19 +1263,19 @@
         <v>331123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>307116</v>
+        <v>307482</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>360040</v>
+        <v>357732</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2969377000125618</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.275409215391887</v>
+        <v>0.2757368564006757</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3228691360757313</v>
+        <v>0.3207993351967966</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>792</v>
@@ -1284,19 +1284,19 @@
         <v>573692</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>537052</v>
+        <v>536192</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>612749</v>
+        <v>609871</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2764428768046107</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2587875083112299</v>
+        <v>0.2583730698839969</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2952631885102317</v>
+        <v>0.2938763298300219</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>524921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>488090</v>
+        <v>493586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>560025</v>
+        <v>559069</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5467147790399123</v>
+        <v>0.5467147790399124</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.508354018895562</v>
+        <v>0.5140789632973909</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5832764985065059</v>
+        <v>0.5822803868414854</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>832</v>
@@ -1334,19 +1334,19 @@
         <v>588191</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>557537</v>
+        <v>560516</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>615315</v>
+        <v>616958</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5274653589525286</v>
+        <v>0.5274653589525287</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4999758545063466</v>
+        <v>0.5026481125097422</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5517893042408119</v>
+        <v>0.5532629234150422</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1294</v>
@@ -1355,19 +1355,19 @@
         <v>1113112</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1068348</v>
+        <v>1070531</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1158506</v>
+        <v>1159240</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5363712516936879</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5148011030812099</v>
+        <v>0.5158530795936898</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5582449273886402</v>
+        <v>0.5585985689721892</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>74596</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57972</v>
+        <v>59062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>94048</v>
+        <v>95288</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07128308085938181</v>
+        <v>0.0712830808593818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05539678563324645</v>
+        <v>0.05643900979412832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08987128215094424</v>
+        <v>0.09105545633669623</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>90</v>
@@ -1480,19 +1480,19 @@
         <v>71878</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57205</v>
+        <v>56880</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86813</v>
+        <v>88081</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06863637605193804</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05462506985738084</v>
+        <v>0.05431457491529283</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08289744567019455</v>
+        <v>0.08410830372850828</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>162</v>
@@ -1501,19 +1501,19 @@
         <v>146474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>123439</v>
+        <v>124412</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>169888</v>
+        <v>169670</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06995925249864247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05895686244614941</v>
+        <v>0.05942179183425511</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08114189672208044</v>
+        <v>0.08103773931452396</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>31978</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22513</v>
+        <v>21733</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>46686</v>
+        <v>44921</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0305580369719676</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.021512969190734</v>
+        <v>0.02076772547035329</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04461224119717618</v>
+        <v>0.04292552172754418</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>44</v>
@@ -1551,19 +1551,19 @@
         <v>32958</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24052</v>
+        <v>24696</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>44753</v>
+        <v>44950</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03147189889516154</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02296689498743559</v>
+        <v>0.02358238996686759</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0427345216388814</v>
+        <v>0.04292295888442303</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>75</v>
@@ -1572,19 +1572,19 @@
         <v>64937</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>50726</v>
+        <v>50753</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>81672</v>
+        <v>82120</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.03101513227338596</v>
+        <v>0.03101513227338597</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02422799447209136</v>
+        <v>0.02424074046702024</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03900839199560413</v>
+        <v>0.03922243483915555</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>226503</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>199895</v>
+        <v>200770</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>254372</v>
+        <v>251923</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2164433328533155</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1910165918542794</v>
+        <v>0.1918526071148115</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2430737090069685</v>
+        <v>0.2407343955634529</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>358</v>
@@ -1622,19 +1622,19 @@
         <v>237605</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>214752</v>
+        <v>216419</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>259936</v>
+        <v>263316</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2268890359649739</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.205066498563156</v>
+        <v>0.2066585807129394</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2482125232287182</v>
+        <v>0.2514402606708805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>624</v>
@@ -1643,19 +1643,19 @@
         <v>464109</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>430633</v>
+        <v>426193</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>500372</v>
+        <v>500206</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2216680628602981</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2056793261364835</v>
+        <v>0.2035587678463582</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2389879283813142</v>
+        <v>0.2389086944440059</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>713401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>680941</v>
+        <v>680350</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>743227</v>
+        <v>745455</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.681715549315335</v>
+        <v>0.6817155493153351</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6506970811801395</v>
+        <v>0.6501322625970853</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7102168519330003</v>
+        <v>0.7123455874858829</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1023</v>
@@ -1693,19 +1693,19 @@
         <v>704790</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>677674</v>
+        <v>677754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>731432</v>
+        <v>730733</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6730026890879266</v>
+        <v>0.6730026890879265</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6471095016004715</v>
+        <v>0.6471863398942304</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6984430501253327</v>
+        <v>0.6977761176770699</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1683</v>
@@ -1714,19 +1714,19 @@
         <v>1418191</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1373546</v>
+        <v>1379732</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1455885</v>
+        <v>1459646</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6773575523676735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6560340309362876</v>
+        <v>0.6589888493670661</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6953607987808363</v>
+        <v>0.6971574473349592</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>7189</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2990</v>
+        <v>3203</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13946</v>
+        <v>14794</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007365819365901948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003063819835021356</v>
+        <v>0.003282316201666654</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01429016638343471</v>
+        <v>0.01515902307714892</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -1839,19 +1839,19 @@
         <v>11381</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6000</v>
+        <v>6315</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24870</v>
+        <v>24602</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01255445920845516</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006618859873486215</v>
+        <v>0.006966047345240606</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02743353056006649</v>
+        <v>0.02713872950740986</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1860,19 +1860,19 @@
         <v>18570</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11593</v>
+        <v>11762</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31559</v>
+        <v>29548</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009864511571274834</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006158506440133207</v>
+        <v>0.006248165721257038</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01676477823737248</v>
+        <v>0.01569660760852415</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>5954</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2038</v>
+        <v>2245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11265</v>
+        <v>12004</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.006100679567474101</v>
+        <v>0.0061006795674741</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002087820450182471</v>
+        <v>0.002300794939517761</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01154307654927193</v>
+        <v>0.01230011405523201</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1910,19 +1910,19 @@
         <v>10874</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6476</v>
+        <v>6194</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17493</v>
+        <v>17030</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01199531193019097</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007143870083047746</v>
+        <v>0.006832412868024722</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01929697056075694</v>
+        <v>0.01878615271191364</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -1931,19 +1931,19 @@
         <v>16828</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10789</v>
+        <v>10778</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25303</v>
+        <v>24738</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008939356443341376</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005731312418948462</v>
+        <v>0.005725510660732662</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01344137885272921</v>
+        <v>0.01314105935964656</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>215548</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>189310</v>
+        <v>190986</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>243854</v>
+        <v>243960</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2208641044996074</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1939789014948259</v>
+        <v>0.1956967872540804</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.249868283422288</v>
+        <v>0.2499774076136487</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>328</v>
@@ -1981,19 +1981,19 @@
         <v>212462</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>192231</v>
+        <v>190505</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>236390</v>
+        <v>235635</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2343650528507956</v>
+        <v>0.2343650528507955</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2120489362848635</v>
+        <v>0.210144973226012</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.260760453075524</v>
+        <v>0.2599279197642861</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>572</v>
@@ -2002,19 +2002,19 @@
         <v>428009</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>394191</v>
+        <v>396500</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>463672</v>
+        <v>465117</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2273657533775252</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2094011178128944</v>
+        <v>0.2106276365252454</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2463102590239402</v>
+        <v>0.2470779657221951</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>747239</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>718701</v>
+        <v>717937</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>773086</v>
+        <v>773912</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7656693965670167</v>
+        <v>0.7656693965670165</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7364273227916679</v>
+        <v>0.7356445186915304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7921541501495655</v>
+        <v>0.7930001283581684</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>958</v>
@@ -2052,19 +2052,19 @@
         <v>671824</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>646961</v>
+        <v>648088</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>692135</v>
+        <v>694364</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7410851760105583</v>
+        <v>0.7410851760105582</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7136592207383504</v>
+        <v>0.7149021170273528</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7634895382043384</v>
+        <v>0.7659487612529801</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1647</v>
@@ -2073,19 +2073,19 @@
         <v>1419063</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1383594</v>
+        <v>1381748</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1455146</v>
+        <v>1454682</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7538303786078586</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.734988387100155</v>
+        <v>0.7340079154027696</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7729981445246326</v>
+        <v>0.7727516027205393</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>283967</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>253297</v>
+        <v>251002</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>319826</v>
+        <v>323508</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0815695892099388</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07275953962691759</v>
+        <v>0.07210040081177277</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09187020518230148</v>
+        <v>0.09292779269904217</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>372</v>
@@ -2198,19 +2198,19 @@
         <v>294265</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>263274</v>
+        <v>264154</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>325902</v>
+        <v>326998</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.0797062864450952</v>
+        <v>0.07970628644509521</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07131185417913323</v>
+        <v>0.07155031588913839</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08827556982576008</v>
+        <v>0.08857262576410306</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>629</v>
@@ -2219,19 +2219,19 @@
         <v>578232</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>534449</v>
+        <v>533148</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>628381</v>
+        <v>634481</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.08061058723483951</v>
+        <v>0.08061058723483953</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07450692516848041</v>
+        <v>0.07432542081152528</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08760177391432371</v>
+        <v>0.08845218222646827</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>98401</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>79000</v>
+        <v>80750</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120196</v>
+        <v>120596</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02826558607207941</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02269284303831827</v>
+        <v>0.02319547828929153</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03452644926668131</v>
+        <v>0.03464121227437741</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>163</v>
@@ -2269,19 +2269,19 @@
         <v>118371</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101111</v>
+        <v>101090</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>138683</v>
+        <v>137567</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03206269009528991</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02738762307175636</v>
+        <v>0.02738193684104897</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0375644624359654</v>
+        <v>0.0372621124463457</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>264</v>
@@ -2290,19 +2290,19 @@
         <v>216772</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>189972</v>
+        <v>189554</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>244187</v>
+        <v>241301</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03021987408507549</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02648378062839033</v>
+        <v>0.02642551095965709</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0340417800608115</v>
+        <v>0.03363947067419567</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>815796</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>770080</v>
+        <v>762848</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>866318</v>
+        <v>867305</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2343375661313654</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2212057210292431</v>
+        <v>0.219128364616074</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2488502131742288</v>
+        <v>0.2491337711356397</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1520</v>
@@ -2340,19 +2340,19 @@
         <v>986148</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>936887</v>
+        <v>940513</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1031979</v>
+        <v>1033615</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2671136949787702</v>
+        <v>0.2671136949787703</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2537705196730593</v>
+        <v>0.2547526820352886</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2795277278071919</v>
+        <v>0.2799707130922456</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2436</v>
@@ -2361,19 +2361,19 @@
         <v>1801944</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1736971</v>
+        <v>1734068</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1868710</v>
+        <v>1875717</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2512067367749286</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2421489279438663</v>
+        <v>0.2417441582409529</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2605145184112185</v>
+        <v>0.2614913032135249</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2283121</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2229668</v>
+        <v>2220157</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2346584</v>
+        <v>2342304</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6558272585866165</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6404727398734704</v>
+        <v>0.6377409827073975</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6740569437913068</v>
+        <v>0.6728275507240322</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3243</v>
@@ -2411,19 +2411,19 @@
         <v>2293083</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2240139</v>
+        <v>2238625</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2347155</v>
+        <v>2344773</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.6211173284808446</v>
+        <v>0.6211173284808447</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6067767888269247</v>
+        <v>0.6063665203625065</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6357635785874001</v>
+        <v>0.6351184521592195</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5310</v>
@@ -2432,19 +2432,19 @@
         <v>4576204</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4488533</v>
+        <v>4496015</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4650453</v>
+        <v>4649838</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6379628019051564</v>
+        <v>0.6379628019051566</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6257406106987026</v>
+        <v>0.62678375145155</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6483137422691957</v>
+        <v>0.6482280115655201</v>
       </c>
     </row>
     <row r="28">
